--- a/Syukuran Angkatan '18/Timeline Kepanitiaan.xlsx
+++ b/Syukuran Angkatan '18/Timeline Kepanitiaan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Bakhtiar-183040004\Syukuran Angkatan '18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D4BC16-496C-45FA-B529-0669C83C7AE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7179BA1-0165-42B9-A1F8-5A112000EA15}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5748" xr2:uid="{5F8A1BB9-387C-4CF1-A7B2-1E0C3927DF43}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>November</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Sharing dengan DPH Angkatan</t>
-  </si>
-  <si>
-    <t>Latihan dance panitia</t>
   </si>
   <si>
     <t>Deadline DANUS</t>
@@ -305,7 +302,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,9 +340,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -352,12 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,11 +364,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0849B5-8230-4E7D-99E2-A52A55ADA3D6}">
   <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA67" sqref="AA67"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S43" sqref="S42:S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,23 +826,23 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="40" t="s">
         <v>7</v>
       </c>
@@ -874,21 +871,21 @@
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
       <c r="Q5" s="40"/>
       <c r="R5" s="40"/>
       <c r="S5" s="40"/>
@@ -917,67 +914,67 @@
       <c r="A6" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="34">
+      <c r="B6" s="33"/>
+      <c r="C6" s="36">
         <v>17</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="23">
         <v>18</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="36">
         <v>19</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="36">
         <v>20</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="36">
         <v>21</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="36">
         <v>22</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="36">
         <v>23</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="36">
         <v>24</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="23">
         <v>25</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="36">
         <v>26</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="36">
         <v>27</v>
       </c>
-      <c r="N6" s="34">
+      <c r="N6" s="36">
         <v>28</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="36">
         <v>29</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="36">
         <v>30</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="25"/>
+      <c r="R6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="4"/>
@@ -988,39 +985,39 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="29" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="4"/>
@@ -1039,24 +1036,24 @@
       <c r="C8" s="7"/>
       <c r="D8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23" t="s">
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="4"/>
@@ -1074,24 +1071,24 @@
       </c>
       <c r="D9" s="10"/>
       <c r="K9" s="3"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="24" t="s">
+      <c r="Q9" s="25"/>
+      <c r="R9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
       <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.3">
@@ -1103,24 +1100,24 @@
       </c>
       <c r="D10" s="10"/>
       <c r="K10" s="3"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="25" t="s">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="28"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
       <c r="AG10" s="2"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.3">
@@ -1132,22 +1129,22 @@
       </c>
       <c r="D11" s="10"/>
       <c r="K11" s="3"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
       <c r="AG11" s="2"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.3">
@@ -1160,24 +1157,24 @@
       <c r="D12" s="3"/>
       <c r="E12" s="8"/>
       <c r="K12" s="3"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AL12" s="4"/>
@@ -1193,22 +1190,22 @@
       <c r="D13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="13"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AL13" s="4"/>
@@ -1224,22 +1221,22 @@
       <c r="D14" s="3"/>
       <c r="K14" s="3"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="4"/>
@@ -1258,22 +1255,22 @@
       <c r="D15" s="8"/>
       <c r="K15" s="3"/>
       <c r="N15" s="8"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="4"/>
@@ -1287,27 +1284,27 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="3"/>
       <c r="J16" s="18"/>
       <c r="K16" s="3"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="4"/>
@@ -1321,27 +1318,27 @@
         <v>10</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
       <c r="G17" s="13"/>
       <c r="K17" s="3"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="4"/>
@@ -1355,26 +1352,26 @@
         <v>11</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="3"/>
       <c r="K18" s="13"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="4"/>
@@ -1388,28 +1385,28 @@
         <v>12</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
       <c r="I19" s="11"/>
       <c r="K19" s="3"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="4"/>
@@ -1424,22 +1421,22 @@
       </c>
       <c r="D20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="4"/>
@@ -1454,22 +1451,22 @@
       </c>
       <c r="D21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="4"/>
@@ -1479,40 +1476,40 @@
       <c r="AM21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
       <c r="AG22" s="5"/>
       <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
@@ -1522,38 +1519,38 @@
       <c r="AM22" s="5"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
@@ -1563,38 +1560,38 @@
       <c r="AM23" s="5"/>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
@@ -1604,38 +1601,38 @@
       <c r="AM24" s="5"/>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
-      <c r="AF25" s="20"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -1645,38 +1642,38 @@
       <c r="AM25" s="5"/>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="20"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
-      <c r="AF26" s="20"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -1686,38 +1683,38 @@
       <c r="AM26" s="5"/>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
-      <c r="AF27" s="20"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
       <c r="AG27" s="5"/>
       <c r="AH27" s="5"/>
       <c r="AI27" s="5"/>
@@ -1727,38 +1724,38 @@
       <c r="AM27" s="5"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
       <c r="AG28" s="5"/>
       <c r="AH28" s="5"/>
       <c r="AI28" s="5"/>
@@ -1768,38 +1765,38 @@
       <c r="AM28" s="5"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
       <c r="AG29" s="5"/>
       <c r="AH29" s="5"/>
       <c r="AI29" s="5"/>
@@ -1809,38 +1806,38 @@
       <c r="AM29" s="5"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
       <c r="AG30" s="5"/>
       <c r="AH30" s="5"/>
       <c r="AI30" s="5"/>
@@ -1850,38 +1847,38 @@
       <c r="AM30" s="5"/>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
-      <c r="AF31" s="20"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
       <c r="AI31" s="5"/>
@@ -1891,38 +1888,38 @@
       <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
-      <c r="AF32" s="20"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
       <c r="AG32" s="5"/>
       <c r="AH32" s="5"/>
       <c r="AI32" s="5"/>
@@ -1932,38 +1929,38 @@
       <c r="AM32" s="5"/>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
-      <c r="AF33" s="20"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
       <c r="AG33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AI33" s="5"/>
@@ -1973,38 +1970,38 @@
       <c r="AM33" s="5"/>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
-      <c r="AF34" s="20"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
       <c r="AG34" s="5"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
@@ -2141,31 +2138,31 @@
     <row r="38" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
       <c r="Z38" s="40" t="s">
         <v>7</v>
       </c>
@@ -2187,29 +2184,29 @@
     <row r="39" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
       <c r="Z39" s="40"/>
       <c r="AA39" s="40"/>
       <c r="AB39" s="40"/>
@@ -2231,84 +2228,84 @@
         <v>12</v>
       </c>
       <c r="B40" s="39"/>
-      <c r="C40" s="33">
+      <c r="C40" s="35">
         <v>1</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="34">
         <v>2</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E40" s="35">
         <v>3</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F40" s="35">
         <v>4</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="35">
         <v>5</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="35">
         <v>6</v>
       </c>
-      <c r="I40" s="33">
+      <c r="I40" s="35">
         <v>7</v>
       </c>
-      <c r="J40" s="34">
+      <c r="J40" s="36">
         <v>8</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="23">
         <v>9</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="22">
         <v>10</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="21">
         <v>11</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="21">
         <v>12</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="21">
         <v>13</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="21">
         <v>14</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="21">
         <v>15</v>
       </c>
-      <c r="R40" s="36">
+      <c r="R40" s="23">
         <v>16</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="21">
         <v>17</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="21">
         <v>18</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40" s="21">
         <v>19</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="21">
         <v>20</v>
       </c>
-      <c r="W40" s="30">
+      <c r="W40" s="21">
         <v>21</v>
       </c>
-      <c r="X40" s="30">
+      <c r="X40" s="21">
         <v>22</v>
       </c>
-      <c r="Y40" s="30">
+      <c r="Y40" s="21">
         <v>23</v>
       </c>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="28" t="s">
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
@@ -2321,38 +2318,38 @@
     <row r="41" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="29" t="s">
+      <c r="C41" s="35"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
@@ -2370,21 +2367,21 @@
         <v>14</v>
       </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="13"/>
+      <c r="G42" s="13"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="13"/>
+      <c r="N42" s="13"/>
       <c r="R42" s="3"/>
-      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
       <c r="Y42" s="1"/>
-      <c r="Z42" s="22"/>
-      <c r="AA42" s="23" t="s">
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="23"/>
-      <c r="AD42" s="23"/>
-      <c r="AE42" s="23"/>
-      <c r="AF42" s="23"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
@@ -2406,15 +2403,15 @@
       <c r="R43" s="3"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="1"/>
-      <c r="Z43" s="22"/>
-      <c r="AA43" s="24" t="s">
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AB43" s="24"/>
-      <c r="AC43" s="24"/>
-      <c r="AD43" s="24"/>
-      <c r="AE43" s="24"/>
-      <c r="AF43" s="24"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
@@ -2436,15 +2433,15 @@
       <c r="R44" s="3"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="1"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="25" t="s">
+      <c r="Z44" s="25"/>
+      <c r="AA44" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="25"/>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
@@ -2463,18 +2460,17 @@
       </c>
       <c r="D45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="Q45" s="8"/>
       <c r="R45" s="3"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
       <c r="Y45" s="1"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+      <c r="AF45" s="25"/>
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
@@ -2499,15 +2495,15 @@
       <c r="T46" s="14"/>
       <c r="W46" s="12"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="26" t="s">
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-      <c r="AE46" s="26"/>
-      <c r="AF46" s="26"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
@@ -2529,15 +2525,15 @@
       <c r="P47" s="15"/>
       <c r="R47" s="3"/>
       <c r="Y47" s="1"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="27" t="s">
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
@@ -2559,15 +2555,15 @@
       <c r="R48" s="3"/>
       <c r="W48" s="8"/>
       <c r="Y48" s="1"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB48" s="21"/>
-      <c r="AC48" s="21"/>
-      <c r="AD48" s="21"/>
-      <c r="AE48" s="21"/>
-      <c r="AF48" s="21"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
@@ -2585,18 +2581,18 @@
         <v>26</v>
       </c>
       <c r="D49" s="3"/>
-      <c r="G49" s="8"/>
+      <c r="G49" s="12"/>
       <c r="K49" s="3"/>
       <c r="N49" s="12"/>
       <c r="R49" s="3"/>
       <c r="Y49" s="1"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+      <c r="AF49" s="25"/>
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
@@ -2614,21 +2610,18 @@
         <v>27</v>
       </c>
       <c r="D50" s="3"/>
+      <c r="J50" s="12"/>
       <c r="K50" s="3"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="12"/>
+      <c r="N50" s="17"/>
       <c r="R50" s="3"/>
       <c r="Y50" s="1"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+      <c r="AF50" s="25"/>
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
@@ -2643,21 +2636,20 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D51" s="3"/>
-      <c r="J51" s="12"/>
+      <c r="I51" s="8"/>
       <c r="K51" s="3"/>
-      <c r="N51" s="17"/>
       <c r="R51" s="3"/>
       <c r="Y51" s="1"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22"/>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+      <c r="AF51" s="25"/>
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
@@ -2667,25 +2659,24 @@
       <c r="AM51" s="2"/>
       <c r="AN51" s="2"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>11</v>
       </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="H52" s="8"/>
-      <c r="K52" s="3"/>
-      <c r="R52" s="3"/>
+      <c r="B52" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="R52" s="13"/>
       <c r="Y52" s="1"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
-      <c r="AB52" s="22"/>
-      <c r="AC52" s="22"/>
-      <c r="AD52" s="22"/>
-      <c r="AE52" s="22"/>
-      <c r="AF52" s="22"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+      <c r="AF52" s="25"/>
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
@@ -2695,24 +2686,26 @@
       <c r="AM52" s="2"/>
       <c r="AN52" s="2"/>
     </row>
-    <row r="53" spans="1:40" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>12</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="R53" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="H53" s="11"/>
+      <c r="K53" s="3"/>
+      <c r="P53" s="11"/>
+      <c r="R53" s="3"/>
       <c r="Y53" s="1"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
-      <c r="AB53" s="22"/>
-      <c r="AC53" s="22"/>
-      <c r="AD53" s="22"/>
-      <c r="AE53" s="22"/>
-      <c r="AF53" s="22"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+      <c r="AF53" s="25"/>
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
@@ -2726,22 +2719,21 @@
       <c r="A54" s="4">
         <v>13</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>35</v>
+      <c r="B54" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D54" s="3"/>
-      <c r="I54" s="11"/>
       <c r="K54" s="3"/>
-      <c r="P54" s="11"/>
+      <c r="N54" s="8"/>
       <c r="R54" s="3"/>
       <c r="Y54" s="1"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
-      <c r="AB54" s="22"/>
-      <c r="AC54" s="22"/>
-      <c r="AD54" s="22"/>
-      <c r="AE54" s="22"/>
-      <c r="AF54" s="22"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+      <c r="AF54" s="25"/>
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
@@ -2755,21 +2747,37 @@
       <c r="A55">
         <v>14</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="N55" s="8"/>
-      <c r="R55" s="3"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
       <c r="Y55" s="1"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
-      <c r="AB55" s="22"/>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="22"/>
-      <c r="AE55" s="22"/>
-      <c r="AF55" s="22"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
@@ -2780,364 +2788,364 @@
       <c r="AN55" s="2"/>
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="42"/>
-      <c r="AB56" s="42"/>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="5"/>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="42"/>
-      <c r="AB57" s="42"/>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="42"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="20"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="20"/>
+      <c r="AD57" s="20"/>
+      <c r="AE57" s="20"/>
+      <c r="AF57" s="20"/>
       <c r="AG57" s="5"/>
       <c r="AH57" s="5"/>
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="20"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="20"/>
+      <c r="AD58" s="20"/>
+      <c r="AE58" s="20"/>
+      <c r="AF58" s="20"/>
       <c r="AG58" s="5"/>
       <c r="AH58" s="5"/>
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="20"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="20"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="20"/>
+      <c r="AF59" s="20"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="5"/>
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="20"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="20"/>
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="20"/>
+      <c r="AF60" s="20"/>
       <c r="AG60" s="5"/>
       <c r="AH60" s="5"/>
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="20"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="20"/>
+      <c r="AD61" s="20"/>
+      <c r="AE61" s="20"/>
+      <c r="AF61" s="20"/>
       <c r="AG61" s="5"/>
       <c r="AH61" s="5"/>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A62" s="42"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="20"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="20"/>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="20"/>
+      <c r="AF62" s="20"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="5"/>
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A63" s="42"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="42"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="42"/>
-      <c r="AB63" s="42"/>
-      <c r="AC63" s="42"/>
-      <c r="AD63" s="42"/>
-      <c r="AE63" s="42"/>
-      <c r="AF63" s="42"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="20"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+      <c r="AF63" s="20"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="5"/>
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A64" s="42"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="42"/>
-      <c r="AE64" s="42"/>
-      <c r="AF64" s="42"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="20"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+      <c r="AF64" s="20"/>
       <c r="AG64" s="5"/>
       <c r="AH64" s="5"/>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A65" s="42"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
-      <c r="AB65" s="42"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="42"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
+      <c r="AF65" s="20"/>
       <c r="AG65" s="5"/>
       <c r="AH65" s="5"/>
     </row>
@@ -3215,29 +3223,6 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
@@ -3250,12 +3235,7 @@
       <c r="AH68" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A56:AF65"/>
-    <mergeCell ref="Q13:AF21"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="X11:AF12"/>
-    <mergeCell ref="R11:W11"/>
+  <mergeCells count="75">
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="Z38:AF39"/>
     <mergeCell ref="A35:AF37"/>
@@ -3267,10 +3247,6 @@
     <mergeCell ref="E40:E41"/>
     <mergeCell ref="P40:P41"/>
     <mergeCell ref="O40:O41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="R40:R41"/>
-    <mergeCell ref="Q40:Q41"/>
     <mergeCell ref="A1:AF3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Q4:AF5"/>
@@ -3283,6 +3259,10 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="Q13:AF21"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="X11:AF12"/>
+    <mergeCell ref="R11:W11"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C4:P5"/>
     <mergeCell ref="N6:N7"/>
@@ -3327,6 +3307,10 @@
     <mergeCell ref="V40:V41"/>
     <mergeCell ref="U40:U41"/>
     <mergeCell ref="T40:T41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="Q40:Q41"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
